--- a/ADP Project Rubrics.xlsx
+++ b/ADP Project Rubrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\adp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B38DC1-A053-4C02-A351-BD579E262FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9CEE6-ADF1-4A1B-B69F-EE5D43203C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="62">
   <si>
     <t>Acceptatiecriteria</t>
   </si>
@@ -647,8 +647,8 @@
   <dimension ref="A1:Y1077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4758,7 +4758,9 @@
       <c r="E119" s="4">
         <v>0</v>
       </c>
-      <c r="F119" s="4"/>
+      <c r="F119" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
@@ -4795,7 +4797,9 @@
       <c r="E120" s="15">
         <v>1</v>
       </c>
-      <c r="F120" s="15"/>
+      <c r="F120" s="15">
+        <v>1</v>
+      </c>
       <c r="G120" s="15"/>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
@@ -4892,7 +4896,9 @@
       <c r="E123" s="4">
         <v>2</v>
       </c>
-      <c r="F123" s="4"/>
+      <c r="F123" s="4">
+        <v>2</v>
+      </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
@@ -4929,7 +4935,9 @@
       <c r="E124" s="15">
         <v>0</v>
       </c>
-      <c r="F124" s="15"/>
+      <c r="F124" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
@@ -4966,7 +4974,9 @@
       <c r="E125" s="15">
         <v>1</v>
       </c>
-      <c r="F125" s="15"/>
+      <c r="F125" s="15">
+        <v>1</v>
+      </c>
       <c r="G125" s="15"/>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
@@ -5772,7 +5782,9 @@
       <c r="E149" s="4">
         <v>0</v>
       </c>
-      <c r="F149" s="4"/>
+      <c r="F149" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
@@ -5809,7 +5821,9 @@
       <c r="E150" s="15">
         <v>1</v>
       </c>
-      <c r="F150" s="15"/>
+      <c r="F150" s="15">
+        <v>1</v>
+      </c>
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
@@ -5906,7 +5920,9 @@
       <c r="E153" s="4">
         <v>2</v>
       </c>
-      <c r="F153" s="4"/>
+      <c r="F153" s="4">
+        <v>2</v>
+      </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
@@ -5943,7 +5959,9 @@
       <c r="E154" s="15">
         <v>0</v>
       </c>
-      <c r="F154" s="15"/>
+      <c r="F154" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="G154" s="15"/>
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
@@ -5980,7 +5998,9 @@
       <c r="E155" s="15">
         <v>1</v>
       </c>
-      <c r="F155" s="15"/>
+      <c r="F155" s="15">
+        <v>1</v>
+      </c>
       <c r="G155" s="15"/>
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>

--- a/ADP Project Rubrics.xlsx
+++ b/ADP Project Rubrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\adp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9CEE6-ADF1-4A1B-B69F-EE5D43203C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEE8D65-B72D-4BF9-9808-35BC7BAF5792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="62">
   <si>
     <t>Acceptatiecriteria</t>
   </si>
@@ -648,7 +648,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F156" sqref="F156"/>
+      <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1043,9 @@
       <c r="E12" s="18">
         <v>6</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="18">
+        <v>2</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -4384,7 +4386,9 @@
       <c r="E108" s="4">
         <v>2</v>
       </c>
-      <c r="F108" s="4"/>
+      <c r="F108" s="4">
+        <v>2</v>
+      </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -4421,7 +4425,9 @@
       <c r="E109" s="15">
         <v>0</v>
       </c>
-      <c r="F109" s="15"/>
+      <c r="F109" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="G109" s="15"/>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
@@ -4559,6 +4565,9 @@
       <c r="E113" s="4">
         <v>4</v>
       </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
@@ -4659,7 +4668,9 @@
       <c r="E116" s="4">
         <v>4</v>
       </c>
-      <c r="F116" s="4"/>
+      <c r="F116" s="4">
+        <v>4</v>
+      </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
@@ -4690,7 +4701,9 @@
       <c r="E117" s="18">
         <v>12</v>
       </c>
-      <c r="F117" s="18"/>
+      <c r="F117" s="18">
+        <v>12</v>
+      </c>
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
       <c r="I117" s="18"/>
@@ -5075,7 +5088,9 @@
       <c r="E128" s="4">
         <v>4</v>
       </c>
-      <c r="F128" s="4"/>
+      <c r="F128" s="4">
+        <v>4</v>
+      </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
@@ -5176,7 +5191,9 @@
       <c r="E131" s="4">
         <v>4</v>
       </c>
-      <c r="F131" s="4"/>
+      <c r="F131" s="4">
+        <v>4</v>
+      </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
@@ -5207,7 +5224,9 @@
       <c r="E132" s="18">
         <v>12</v>
       </c>
-      <c r="F132" s="18"/>
+      <c r="F132" s="18">
+        <v>12</v>
+      </c>
       <c r="G132" s="18"/>
       <c r="H132" s="18"/>
       <c r="I132" s="18"/>
@@ -6068,7 +6087,9 @@
       <c r="E157" s="4">
         <v>1</v>
       </c>
-      <c r="F157" s="4"/>
+      <c r="F157" s="4">
+        <v>1</v>
+      </c>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
@@ -6200,7 +6221,9 @@
       <c r="E161" s="4">
         <v>4</v>
       </c>
-      <c r="F161" s="4"/>
+      <c r="F161" s="4">
+        <v>4</v>
+      </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
@@ -6231,7 +6254,9 @@
       <c r="E162" s="18">
         <v>12</v>
       </c>
-      <c r="F162" s="18"/>
+      <c r="F162" s="18">
+        <v>9</v>
+      </c>
       <c r="G162" s="18"/>
       <c r="H162" s="18"/>
       <c r="I162" s="18"/>
@@ -8347,7 +8372,7 @@
       </c>
       <c r="F225" s="22">
         <f>1+((F222+F207+F192+F177+F162+F147+F132+F117+F102+F87+F72+F57+F42+F27+F12)/(E222+E207+E192+E177+E162+E147+E132+E117+E102+E87+E72+E57+E42+E27+E12))*9</f>
-        <v>4.7241379310344822</v>
+        <v>6.5344827586206895</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>

--- a/ADP Project Rubrics.xlsx
+++ b/ADP Project Rubrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\adp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEE8D65-B72D-4BF9-9808-35BC7BAF5792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5033E-5B78-4ECF-8980-2C4D54200CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,7 +647,7 @@
   <dimension ref="A1:Y1077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>

--- a/ADP Project Rubrics.xlsx
+++ b/ADP Project Rubrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\adp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5033E-5B78-4ECF-8980-2C4D54200CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EFCED5-A931-4D67-BC30-F34DE8E0F994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="62">
   <si>
     <t>Acceptatiecriteria</t>
   </si>
@@ -647,8 +647,8 @@
   <dimension ref="A1:Y1077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5294,7 +5294,9 @@
       <c r="E134" s="4">
         <v>0</v>
       </c>
-      <c r="F134" s="4"/>
+      <c r="F134" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
@@ -5331,7 +5333,9 @@
       <c r="E135" s="15">
         <v>1</v>
       </c>
-      <c r="F135" s="15"/>
+      <c r="F135" s="15">
+        <v>1</v>
+      </c>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
@@ -5428,7 +5432,9 @@
       <c r="E138" s="4">
         <v>2</v>
       </c>
-      <c r="F138" s="4"/>
+      <c r="F138" s="4">
+        <v>2</v>
+      </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
@@ -5465,7 +5471,9 @@
       <c r="E139" s="15">
         <v>0</v>
       </c>
-      <c r="F139" s="15"/>
+      <c r="F139" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
@@ -5502,7 +5510,9 @@
       <c r="E140" s="15">
         <v>1</v>
       </c>
-      <c r="F140" s="15"/>
+      <c r="F140" s="15">
+        <v>1</v>
+      </c>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
@@ -5601,7 +5611,9 @@
       <c r="E143" s="4">
         <v>4</v>
       </c>
-      <c r="F143" s="4"/>
+      <c r="F143" s="4">
+        <v>4</v>
+      </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
@@ -5702,7 +5714,9 @@
       <c r="E146" s="4">
         <v>4</v>
       </c>
-      <c r="F146" s="4"/>
+      <c r="F146" s="4">
+        <v>4</v>
+      </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
@@ -5733,7 +5747,9 @@
       <c r="E147" s="18">
         <v>12</v>
       </c>
-      <c r="F147" s="18"/>
+      <c r="F147" s="18">
+        <v>12</v>
+      </c>
       <c r="G147" s="18"/>
       <c r="H147" s="18"/>
       <c r="I147" s="18"/>
@@ -6324,7 +6340,9 @@
       <c r="E164" s="4">
         <v>0</v>
       </c>
-      <c r="F164" s="4"/>
+      <c r="F164" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
@@ -6361,7 +6379,9 @@
       <c r="E165" s="15">
         <v>1</v>
       </c>
-      <c r="F165" s="15"/>
+      <c r="F165" s="15">
+        <v>1</v>
+      </c>
       <c r="G165" s="15"/>
       <c r="H165" s="15"/>
       <c r="I165" s="15"/>
@@ -6458,7 +6478,9 @@
       <c r="E168" s="4">
         <v>2</v>
       </c>
-      <c r="F168" s="4"/>
+      <c r="F168" s="4">
+        <v>2</v>
+      </c>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
@@ -6495,7 +6517,9 @@
       <c r="E169" s="15">
         <v>0</v>
       </c>
-      <c r="F169" s="15"/>
+      <c r="F169" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="G169" s="15"/>
       <c r="H169" s="15"/>
       <c r="I169" s="15"/>
@@ -6532,7 +6556,9 @@
       <c r="E170" s="15">
         <v>1</v>
       </c>
-      <c r="F170" s="15"/>
+      <c r="F170" s="15">
+        <v>1</v>
+      </c>
       <c r="G170" s="15"/>
       <c r="H170" s="15"/>
       <c r="I170" s="15"/>
@@ -6631,7 +6657,9 @@
       <c r="E173" s="4">
         <v>4</v>
       </c>
-      <c r="F173" s="4"/>
+      <c r="F173" s="4">
+        <v>4</v>
+      </c>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
@@ -6732,7 +6760,9 @@
       <c r="E176" s="4">
         <v>4</v>
       </c>
-      <c r="F176" s="4"/>
+      <c r="F176" s="4">
+        <v>4</v>
+      </c>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
@@ -6763,7 +6793,9 @@
       <c r="E177" s="18">
         <v>12</v>
       </c>
-      <c r="F177" s="18"/>
+      <c r="F177" s="18">
+        <v>12</v>
+      </c>
       <c r="G177" s="18"/>
       <c r="H177" s="18"/>
       <c r="I177" s="18"/>
@@ -6831,7 +6863,9 @@
       <c r="E179" s="4">
         <v>0</v>
       </c>
-      <c r="F179" s="4"/>
+      <c r="F179" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
@@ -6868,7 +6902,9 @@
       <c r="E180" s="15">
         <v>1</v>
       </c>
-      <c r="F180" s="15"/>
+      <c r="F180" s="15">
+        <v>1</v>
+      </c>
       <c r="G180" s="15"/>
       <c r="H180" s="15"/>
       <c r="I180" s="15"/>
@@ -6965,7 +7001,9 @@
       <c r="E183" s="4">
         <v>2</v>
       </c>
-      <c r="F183" s="4"/>
+      <c r="F183" s="4">
+        <v>2</v>
+      </c>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
@@ -7002,7 +7040,9 @@
       <c r="E184" s="15">
         <v>0</v>
       </c>
-      <c r="F184" s="15"/>
+      <c r="F184" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="G184" s="15"/>
       <c r="H184" s="15"/>
       <c r="I184" s="15"/>
@@ -7039,7 +7079,9 @@
       <c r="E185" s="15">
         <v>1</v>
       </c>
-      <c r="F185" s="15"/>
+      <c r="F185" s="15">
+        <v>1</v>
+      </c>
       <c r="G185" s="15"/>
       <c r="H185" s="15"/>
       <c r="I185" s="15"/>
@@ -7138,7 +7180,9 @@
       <c r="E188" s="4">
         <v>4</v>
       </c>
-      <c r="F188" s="4"/>
+      <c r="F188" s="4">
+        <v>4</v>
+      </c>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
@@ -7239,7 +7283,9 @@
       <c r="E191" s="4">
         <v>4</v>
       </c>
-      <c r="F191" s="4"/>
+      <c r="F191" s="4">
+        <v>4</v>
+      </c>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
@@ -7270,7 +7316,9 @@
       <c r="E192" s="18">
         <v>12</v>
       </c>
-      <c r="F192" s="18"/>
+      <c r="F192" s="18">
+        <v>12</v>
+      </c>
       <c r="G192" s="18"/>
       <c r="H192" s="18"/>
       <c r="I192" s="18"/>
@@ -8372,7 +8420,7 @@
       </c>
       <c r="F225" s="22">
         <f>1+((F222+F207+F192+F177+F162+F147+F132+F117+F102+F87+F72+F57+F42+F27+F12)/(E222+E207+E192+E177+E162+E147+E132+E117+E102+E87+E72+E57+E42+E27+E12))*9</f>
-        <v>6.5344827586206895</v>
+        <v>8.3965517241379324</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>

--- a/ADP Project Rubrics.xlsx
+++ b/ADP Project Rubrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\adp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EFCED5-A931-4D67-BC30-F34DE8E0F994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C5B3AF-4CBE-46FF-8738-F0974D4EC293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="62">
   <si>
     <t>Acceptatiecriteria</t>
   </si>
@@ -647,8 +647,8 @@
   <dimension ref="A1:Y1077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1041,7 +1041,7 @@
         <v>31</v>
       </c>
       <c r="E12" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="18">
         <v>2</v>
@@ -7386,7 +7386,9 @@
       <c r="E194" s="4">
         <v>0</v>
       </c>
-      <c r="F194" s="4"/>
+      <c r="F194" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
@@ -7423,7 +7425,9 @@
       <c r="E195" s="15">
         <v>1</v>
       </c>
-      <c r="F195" s="15"/>
+      <c r="F195" s="15">
+        <v>1</v>
+      </c>
       <c r="G195" s="15"/>
       <c r="H195" s="15"/>
       <c r="I195" s="15"/>
@@ -7520,7 +7524,9 @@
       <c r="E198" s="4">
         <v>2</v>
       </c>
-      <c r="F198" s="4"/>
+      <c r="F198" s="4">
+        <v>2</v>
+      </c>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
@@ -7557,7 +7563,9 @@
       <c r="E199" s="15">
         <v>0</v>
       </c>
-      <c r="F199" s="15"/>
+      <c r="F199" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="G199" s="15"/>
       <c r="H199" s="15"/>
       <c r="I199" s="15"/>
@@ -7594,7 +7602,9 @@
       <c r="E200" s="15">
         <v>1</v>
       </c>
-      <c r="F200" s="15"/>
+      <c r="F200" s="15">
+        <v>1</v>
+      </c>
       <c r="G200" s="15"/>
       <c r="H200" s="15"/>
       <c r="I200" s="15"/>
@@ -7693,7 +7703,9 @@
       <c r="E203" s="4">
         <v>4</v>
       </c>
-      <c r="F203" s="4"/>
+      <c r="F203" s="4">
+        <v>4</v>
+      </c>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
@@ -7763,7 +7775,9 @@
       <c r="E205" s="4">
         <v>1</v>
       </c>
-      <c r="F205" s="4"/>
+      <c r="F205" s="4">
+        <v>1</v>
+      </c>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
@@ -7825,7 +7839,9 @@
       <c r="E207" s="18">
         <v>12</v>
       </c>
-      <c r="F207" s="18"/>
+      <c r="F207" s="18">
+        <v>9</v>
+      </c>
       <c r="G207" s="18"/>
       <c r="H207" s="18"/>
       <c r="I207" s="18"/>
@@ -7893,7 +7909,9 @@
       <c r="E209" s="4">
         <v>0</v>
       </c>
-      <c r="F209" s="4"/>
+      <c r="F209" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
@@ -7930,7 +7948,9 @@
       <c r="E210" s="15">
         <v>1</v>
       </c>
-      <c r="F210" s="15"/>
+      <c r="F210" s="15">
+        <v>1</v>
+      </c>
       <c r="G210" s="15"/>
       <c r="H210" s="15"/>
       <c r="I210" s="15"/>
@@ -8027,7 +8047,9 @@
       <c r="E213" s="4">
         <v>2</v>
       </c>
-      <c r="F213" s="4"/>
+      <c r="F213" s="4">
+        <v>2</v>
+      </c>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
@@ -8064,7 +8086,9 @@
       <c r="E214" s="15">
         <v>0</v>
       </c>
-      <c r="F214" s="15"/>
+      <c r="F214" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="G214" s="15"/>
       <c r="H214" s="15"/>
       <c r="I214" s="15"/>
@@ -8101,7 +8125,9 @@
       <c r="E215" s="15">
         <v>1</v>
       </c>
-      <c r="F215" s="15"/>
+      <c r="F215" s="15">
+        <v>1</v>
+      </c>
       <c r="G215" s="15"/>
       <c r="H215" s="15"/>
       <c r="I215" s="15"/>
@@ -8200,7 +8226,9 @@
       <c r="E218" s="4">
         <v>4</v>
       </c>
-      <c r="F218" s="4"/>
+      <c r="F218" s="4">
+        <v>4</v>
+      </c>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
@@ -8301,7 +8329,9 @@
       <c r="E221" s="4">
         <v>4</v>
       </c>
-      <c r="F221" s="4"/>
+      <c r="F221" s="4">
+        <v>4</v>
+      </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
@@ -8332,7 +8362,9 @@
       <c r="E222" s="18">
         <v>12</v>
       </c>
-      <c r="F222" s="18"/>
+      <c r="F222" s="18">
+        <v>12</v>
+      </c>
       <c r="G222" s="18"/>
       <c r="H222" s="18"/>
       <c r="I222" s="18"/>
@@ -8420,7 +8452,7 @@
       </c>
       <c r="F225" s="22">
         <f>1+((F222+F207+F192+F177+F162+F147+F132+F117+F102+F87+F72+F57+F42+F27+F12)/(E222+E207+E192+E177+E162+E147+E132+E117+E102+E87+E72+E57+E42+E27+E12))*9</f>
-        <v>8.3965517241379324</v>
+        <v>9.6823529411764699</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
